--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H2">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I2">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J2">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.238485666666667</v>
+        <v>5.238587333333333</v>
       </c>
       <c r="N2">
-        <v>21.715457</v>
+        <v>15.715762</v>
       </c>
       <c r="O2">
-        <v>0.4222370040411596</v>
+        <v>0.4275995414145856</v>
       </c>
       <c r="P2">
-        <v>0.4886970894137971</v>
+        <v>0.4709004945758578</v>
       </c>
       <c r="Q2">
-        <v>18.80918811503345</v>
+        <v>17.85483261962422</v>
       </c>
       <c r="R2">
-        <v>169.282693035301</v>
+        <v>160.693493576618</v>
       </c>
       <c r="S2">
-        <v>0.2100837064484102</v>
+        <v>0.2759056363584274</v>
       </c>
       <c r="T2">
-        <v>0.2678380353712018</v>
+        <v>0.3127918974685112</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H3">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I3">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J3">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.822287</v>
       </c>
       <c r="O3">
-        <v>0.07432084028742623</v>
+        <v>0.1039980223901922</v>
       </c>
       <c r="P3">
-        <v>0.0860189371931797</v>
+        <v>0.1145294029466005</v>
       </c>
       <c r="Q3">
-        <v>3.310734616943445</v>
+        <v>4.342538058871445</v>
       </c>
       <c r="R3">
-        <v>29.796611552491</v>
+        <v>39.08284252984301</v>
       </c>
       <c r="S3">
-        <v>0.03697827865513374</v>
+        <v>0.06710400215271421</v>
       </c>
       <c r="T3">
-        <v>0.04714401546810112</v>
+        <v>0.07607524238399789</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H4">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I4">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J4">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.026492666666666</v>
+        <v>1.206253333333333</v>
       </c>
       <c r="N4">
-        <v>3.079477999999999</v>
+        <v>3.61876</v>
       </c>
       <c r="O4">
-        <v>0.05987760537255384</v>
+        <v>0.09846039387014423</v>
       </c>
       <c r="P4">
-        <v>0.0693023377547993</v>
+        <v>0.1084310053659079</v>
       </c>
       <c r="Q4">
-        <v>2.667338799183777</v>
+        <v>4.111309021515556</v>
       </c>
       <c r="R4">
-        <v>24.006049192654</v>
+        <v>37.00178119364</v>
       </c>
       <c r="S4">
-        <v>0.0297920578952742</v>
+        <v>0.06353088578386606</v>
       </c>
       <c r="T4">
-        <v>0.03798222333008407</v>
+        <v>0.0720244304337995</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H5">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I5">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J5">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.994132</v>
+        <v>3.3796095</v>
       </c>
       <c r="N5">
-        <v>13.988264</v>
+        <v>6.759219</v>
       </c>
       <c r="O5">
-        <v>0.407983309982618</v>
+        <v>0.2758605288805678</v>
       </c>
       <c r="P5">
-        <v>0.3147999097026509</v>
+        <v>0.2025304003742571</v>
       </c>
       <c r="Q5">
-        <v>18.17423568235867</v>
+        <v>11.5188233205985</v>
       </c>
       <c r="R5">
-        <v>109.045414094152</v>
+        <v>69.112939923591</v>
       </c>
       <c r="S5">
-        <v>0.2029917916002549</v>
+        <v>0.1779970916600455</v>
       </c>
       <c r="T5">
-        <v>0.1725309832537122</v>
+        <v>0.1345292030011153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H6">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I6">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J6">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6099756666666667</v>
+        <v>1.152607</v>
       </c>
       <c r="N6">
-        <v>1.829927</v>
+        <v>3.457821</v>
       </c>
       <c r="O6">
-        <v>0.03558124031624234</v>
+        <v>0.09408151344451027</v>
       </c>
       <c r="P6">
-        <v>0.04118172593557306</v>
+        <v>0.1036086967373766</v>
       </c>
       <c r="Q6">
-        <v>1.585020346556778</v>
+        <v>3.928464632107667</v>
       </c>
       <c r="R6">
-        <v>14.265183119011</v>
+        <v>35.356181688969</v>
       </c>
       <c r="S6">
-        <v>0.01770341958219069</v>
+        <v>0.06070544358068884</v>
       </c>
       <c r="T6">
-        <v>0.02257028496120147</v>
+        <v>0.06882125039157917</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.649123</v>
       </c>
       <c r="I7">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J7">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.238485666666667</v>
+        <v>5.238587333333333</v>
       </c>
       <c r="N7">
-        <v>21.715457</v>
+        <v>15.715762</v>
       </c>
       <c r="O7">
-        <v>0.4222370040411596</v>
+        <v>0.4275995414145856</v>
       </c>
       <c r="P7">
-        <v>0.4886970894137971</v>
+        <v>0.4709004945758578</v>
       </c>
       <c r="Q7">
-        <v>6.391879621578999</v>
+        <v>4.625887397414</v>
       </c>
       <c r="R7">
-        <v>57.526916594211</v>
+        <v>41.632986576726</v>
       </c>
       <c r="S7">
-        <v>0.07139222351655394</v>
+        <v>0.07148251867133999</v>
       </c>
       <c r="T7">
-        <v>0.09101873348826868</v>
+        <v>0.08103912970444023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.649123</v>
       </c>
       <c r="I8">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J8">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.822287</v>
       </c>
       <c r="O8">
-        <v>0.07432084028742623</v>
+        <v>0.1039980223901922</v>
       </c>
       <c r="P8">
-        <v>0.0860189371931797</v>
+        <v>0.1145294029466005</v>
       </c>
       <c r="Q8">
         <v>1.125078711589</v>
@@ -948,10 +948,10 @@
         <v>10.125708404301</v>
       </c>
       <c r="S8">
-        <v>0.01256623647609251</v>
+        <v>0.0173855204631325</v>
       </c>
       <c r="T8">
-        <v>0.01602083353662205</v>
+        <v>0.01970981820420771</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.649123</v>
       </c>
       <c r="I9">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J9">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.026492666666666</v>
+        <v>1.206253333333333</v>
       </c>
       <c r="N9">
-        <v>3.079477999999999</v>
+        <v>3.61876</v>
       </c>
       <c r="O9">
-        <v>0.05987760537255384</v>
+        <v>0.09846039387014423</v>
       </c>
       <c r="P9">
-        <v>0.0693023377547993</v>
+        <v>0.1084310053659079</v>
       </c>
       <c r="Q9">
-        <v>0.9064351108659998</v>
+        <v>1.06517114972</v>
       </c>
       <c r="R9">
-        <v>8.157915997793998</v>
+        <v>9.58654034748</v>
       </c>
       <c r="S9">
-        <v>0.01012416094629325</v>
+        <v>0.01645978599492015</v>
       </c>
       <c r="T9">
-        <v>0.01290740449832516</v>
+        <v>0.01866032083008385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.649123</v>
       </c>
       <c r="I10">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J10">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.994132</v>
+        <v>3.3796095</v>
       </c>
       <c r="N10">
-        <v>13.988264</v>
+        <v>6.759219</v>
       </c>
       <c r="O10">
-        <v>0.407983309982618</v>
+        <v>0.2758605288805678</v>
       </c>
       <c r="P10">
-        <v>0.3147999097026509</v>
+        <v>0.2025304003742571</v>
       </c>
       <c r="Q10">
-        <v>6.176105315412</v>
+        <v>2.9843337524895</v>
       </c>
       <c r="R10">
-        <v>37.056631892472</v>
+        <v>17.906002514937</v>
       </c>
       <c r="S10">
-        <v>0.06898219573020488</v>
+        <v>0.04611605835954783</v>
       </c>
       <c r="T10">
-        <v>0.05863077498113639</v>
+        <v>0.03485425811626041</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.649123</v>
       </c>
       <c r="I11">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J11">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6099756666666667</v>
+        <v>1.152607</v>
       </c>
       <c r="N11">
-        <v>1.829927</v>
+        <v>3.457821</v>
       </c>
       <c r="O11">
-        <v>0.03558124031624234</v>
+        <v>0.09408151344451027</v>
       </c>
       <c r="P11">
-        <v>0.04118172593557306</v>
+        <v>0.1036086967373766</v>
       </c>
       <c r="Q11">
-        <v>0.538633522669</v>
+        <v>1.017799237887</v>
       </c>
       <c r="R11">
-        <v>4.847701704021</v>
+        <v>9.160193140982999</v>
       </c>
       <c r="S11">
-        <v>0.006016109050939016</v>
+        <v>0.01572776135160685</v>
       </c>
       <c r="T11">
-        <v>0.007670003809543914</v>
+        <v>0.01783043065387076</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.255631</v>
+        <v>0.204179</v>
       </c>
       <c r="H12">
-        <v>0.7668929999999999</v>
+        <v>0.612537</v>
       </c>
       <c r="I12">
-        <v>0.04894713396405229</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J12">
-        <v>0.05391674753549563</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.238485666666667</v>
+        <v>5.238587333333333</v>
       </c>
       <c r="N12">
-        <v>21.715457</v>
+        <v>15.715762</v>
       </c>
       <c r="O12">
-        <v>0.4222370040411596</v>
+        <v>0.4275995414145856</v>
       </c>
       <c r="P12">
-        <v>0.4886970894137971</v>
+        <v>0.4709004945758578</v>
       </c>
       <c r="Q12">
-        <v>1.850381329455667</v>
+        <v>1.069609523132667</v>
       </c>
       <c r="R12">
-        <v>16.653431965101</v>
+        <v>9.626485708194</v>
       </c>
       <c r="S12">
-        <v>0.02066729120138273</v>
+        <v>0.01652837091346328</v>
       </c>
       <c r="T12">
-        <v>0.02634895759125523</v>
+        <v>0.01873807497491385</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.255631</v>
+        <v>0.204179</v>
       </c>
       <c r="H13">
-        <v>0.7668929999999999</v>
+        <v>0.612537</v>
       </c>
       <c r="I13">
-        <v>0.04894713396405229</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J13">
-        <v>0.05391674753549563</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.822287</v>
       </c>
       <c r="O13">
-        <v>0.07432084028742623</v>
+        <v>0.1039980223901922</v>
       </c>
       <c r="P13">
-        <v>0.0860189371931797</v>
+        <v>0.1145294029466005</v>
       </c>
       <c r="Q13">
-        <v>0.3256983493656667</v>
+        <v>0.2601435791243333</v>
       </c>
       <c r="R13">
-        <v>2.931285144291</v>
+        <v>2.341292212119</v>
       </c>
       <c r="S13">
-        <v>0.003637792125869586</v>
+        <v>0.004019924536507287</v>
       </c>
       <c r="T13">
-        <v>0.004637861319916324</v>
+        <v>0.004557354608808568</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.255631</v>
+        <v>0.204179</v>
       </c>
       <c r="H14">
-        <v>0.7668929999999999</v>
+        <v>0.612537</v>
       </c>
       <c r="I14">
-        <v>0.04894713396405229</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J14">
-        <v>0.05391674753549563</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.026492666666666</v>
+        <v>1.206253333333333</v>
       </c>
       <c r="N14">
-        <v>3.079477999999999</v>
+        <v>3.61876</v>
       </c>
       <c r="O14">
-        <v>0.05987760537255384</v>
+        <v>0.09846039387014423</v>
       </c>
       <c r="P14">
-        <v>0.0693023377547993</v>
+        <v>0.1084310053659079</v>
       </c>
       <c r="Q14">
-        <v>0.2624033468726666</v>
+        <v>0.2462915993466667</v>
       </c>
       <c r="R14">
-        <v>2.361630121853999</v>
+        <v>2.21662439412</v>
       </c>
       <c r="S14">
-        <v>0.00293083717161705</v>
+        <v>0.003805873843521198</v>
       </c>
       <c r="T14">
-        <v>0.003736556648345161</v>
+        <v>0.004314687139969367</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.255631</v>
+        <v>0.204179</v>
       </c>
       <c r="H15">
-        <v>0.7668929999999999</v>
+        <v>0.612537</v>
       </c>
       <c r="I15">
-        <v>0.04894713396405229</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J15">
-        <v>0.05391674753549563</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.994132</v>
+        <v>3.3796095</v>
       </c>
       <c r="N15">
-        <v>13.988264</v>
+        <v>6.759219</v>
       </c>
       <c r="O15">
-        <v>0.407983309982618</v>
+        <v>0.2758605288805678</v>
       </c>
       <c r="P15">
-        <v>0.3147999097026509</v>
+        <v>0.2025304003742571</v>
       </c>
       <c r="Q15">
-        <v>1.787916957292</v>
+        <v>0.6900452881005</v>
       </c>
       <c r="R15">
-        <v>10.727501743752</v>
+        <v>4.140271728603</v>
       </c>
       <c r="S15">
-        <v>0.01996961372881667</v>
+        <v>0.01066307303941053</v>
       </c>
       <c r="T15">
-        <v>0.01697298725563465</v>
+        <v>0.008059090764664307</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.255631</v>
+        <v>0.204179</v>
       </c>
       <c r="H16">
-        <v>0.7668929999999999</v>
+        <v>0.612537</v>
       </c>
       <c r="I16">
-        <v>0.04894713396405229</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J16">
-        <v>0.05391674753549563</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6099756666666667</v>
+        <v>1.152607</v>
       </c>
       <c r="N16">
-        <v>1.829927</v>
+        <v>3.457821</v>
       </c>
       <c r="O16">
-        <v>0.03558124031624234</v>
+        <v>0.09408151344451027</v>
       </c>
       <c r="P16">
-        <v>0.04118172593557306</v>
+        <v>0.1036086967373766</v>
       </c>
       <c r="Q16">
-        <v>0.1559286896456667</v>
+        <v>0.235338144653</v>
       </c>
       <c r="R16">
-        <v>1.403358206811</v>
+        <v>2.118043301877</v>
       </c>
       <c r="S16">
-        <v>0.001741599736366252</v>
+        <v>0.003636613232012709</v>
       </c>
       <c r="T16">
-        <v>0.002220384720344265</v>
+        <v>0.004122797809475074</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.4441305</v>
+        <v>0.4532555</v>
       </c>
       <c r="H17">
-        <v>2.888261</v>
+        <v>0.906511</v>
       </c>
       <c r="I17">
-        <v>0.2765159509021747</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J17">
-        <v>0.203060451919131</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.238485666666667</v>
+        <v>5.238587333333333</v>
       </c>
       <c r="N17">
-        <v>21.715457</v>
+        <v>15.715762</v>
       </c>
       <c r="O17">
-        <v>0.4222370040411596</v>
+        <v>0.4275995414145856</v>
       </c>
       <c r="P17">
-        <v>0.4886970894137971</v>
+        <v>0.4709004945758578</v>
       </c>
       <c r="Q17">
-        <v>10.45331792504617</v>
+        <v>2.374418521063666</v>
       </c>
       <c r="R17">
-        <v>62.719907550277</v>
+        <v>14.246511126382</v>
       </c>
       <c r="S17">
-        <v>0.1167552666785266</v>
+        <v>0.03669121223322309</v>
       </c>
       <c r="T17">
-        <v>0.09923505182792962</v>
+        <v>0.0277310123038839</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.4441305</v>
+        <v>0.4532555</v>
       </c>
       <c r="H18">
-        <v>2.888261</v>
+        <v>0.906511</v>
       </c>
       <c r="I18">
-        <v>0.2765159509021747</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J18">
-        <v>0.203060451919131</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.822287</v>
       </c>
       <c r="O18">
-        <v>0.07432084028742623</v>
+        <v>0.1039980223901922</v>
       </c>
       <c r="P18">
-        <v>0.0860189371931797</v>
+        <v>0.1145294029466005</v>
       </c>
       <c r="Q18">
-        <v>1.839960412151167</v>
+        <v>0.5774908684428334</v>
       </c>
       <c r="R18">
-        <v>11.039762472907</v>
+        <v>3.464945210657</v>
       </c>
       <c r="S18">
-        <v>0.02055089782392632</v>
+        <v>0.008923801692421251</v>
       </c>
       <c r="T18">
-        <v>0.01746704426005042</v>
+        <v>0.006744559240969385</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.4441305</v>
+        <v>0.4532555</v>
       </c>
       <c r="H19">
-        <v>2.888261</v>
+        <v>0.906511</v>
       </c>
       <c r="I19">
-        <v>0.2765159509021747</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J19">
-        <v>0.203060451919131</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.026492666666666</v>
+        <v>1.206253333333333</v>
       </c>
       <c r="N19">
-        <v>3.079477999999999</v>
+        <v>3.61876</v>
       </c>
       <c r="O19">
-        <v>0.05987760537255384</v>
+        <v>0.09846039387014423</v>
       </c>
       <c r="P19">
-        <v>0.0693023377547993</v>
+        <v>0.1084310053659079</v>
       </c>
       <c r="Q19">
-        <v>1.482389367959666</v>
+        <v>0.5467409577266666</v>
       </c>
       <c r="R19">
-        <v>8.894336207757998</v>
+        <v>3.28044574636</v>
       </c>
       <c r="S19">
-        <v>0.01655711298733689</v>
+        <v>0.008448632091851377</v>
       </c>
       <c r="T19">
-        <v>0.0140725640235418</v>
+        <v>0.006385428723392662</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.4441305</v>
+        <v>0.4532555</v>
       </c>
       <c r="H20">
-        <v>2.888261</v>
+        <v>0.906511</v>
       </c>
       <c r="I20">
-        <v>0.2765159509021747</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J20">
-        <v>0.203060451919131</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.994132</v>
+        <v>3.3796095</v>
       </c>
       <c r="N20">
-        <v>13.988264</v>
+        <v>6.759219</v>
       </c>
       <c r="O20">
-        <v>0.407983309982618</v>
+        <v>0.2758605288805678</v>
       </c>
       <c r="P20">
-        <v>0.3147999097026509</v>
+        <v>0.2025304003742571</v>
       </c>
       <c r="Q20">
-        <v>10.100439342226</v>
+        <v>1.53182659372725</v>
       </c>
       <c r="R20">
-        <v>40.401757368904</v>
+        <v>6.127306374909</v>
       </c>
       <c r="S20">
-        <v>0.1128138929120603</v>
+        <v>0.02367087948326978</v>
       </c>
       <c r="T20">
-        <v>0.06392341192832193</v>
+        <v>0.01192687858556562</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.4441305</v>
+        <v>0.4532555</v>
       </c>
       <c r="H21">
-        <v>2.888261</v>
+        <v>0.906511</v>
       </c>
       <c r="I21">
-        <v>0.2765159509021747</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J21">
-        <v>0.203060451919131</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6099756666666667</v>
+        <v>1.152607</v>
       </c>
       <c r="N21">
-        <v>1.829927</v>
+        <v>3.457821</v>
       </c>
       <c r="O21">
-        <v>0.03558124031624234</v>
+        <v>0.09408151344451027</v>
       </c>
       <c r="P21">
-        <v>0.04118172593557306</v>
+        <v>0.1036086967373766</v>
       </c>
       <c r="Q21">
-        <v>0.8808844644911666</v>
+        <v>0.5224254620884999</v>
       </c>
       <c r="R21">
-        <v>5.285306786947</v>
+        <v>3.134552772531</v>
       </c>
       <c r="S21">
-        <v>0.009838780500324546</v>
+        <v>0.008072891672417518</v>
       </c>
       <c r="T21">
-        <v>0.008362379879287264</v>
+        <v>0.006101446222946628</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.04129366666666667</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H22">
-        <v>0.123881</v>
+        <v>1.000309</v>
       </c>
       <c r="I22">
-        <v>0.007906735232425854</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J22">
-        <v>0.008709507847176508</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.238485666666667</v>
+        <v>5.238587333333333</v>
       </c>
       <c r="N22">
-        <v>21.715457</v>
+        <v>15.715762</v>
       </c>
       <c r="O22">
-        <v>0.4222370040411596</v>
+        <v>0.4275995414145856</v>
       </c>
       <c r="P22">
-        <v>0.4886970894137971</v>
+        <v>0.4709004945758578</v>
       </c>
       <c r="Q22">
-        <v>0.2989036142907778</v>
+        <v>1.746735352273111</v>
       </c>
       <c r="R22">
-        <v>2.690132528617</v>
+        <v>15.720618170458</v>
       </c>
       <c r="S22">
-        <v>0.003338516196286175</v>
+        <v>0.02699180323813181</v>
       </c>
       <c r="T22">
-        <v>0.004256311135141785</v>
+        <v>0.03060038012410859</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.04129366666666667</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H23">
-        <v>0.123881</v>
+        <v>1.000309</v>
       </c>
       <c r="I23">
-        <v>0.007906735232425854</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J23">
-        <v>0.008709507847176508</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.822287</v>
       </c>
       <c r="O23">
-        <v>0.07432084028742623</v>
+        <v>0.1039980223901922</v>
       </c>
       <c r="P23">
-        <v>0.0860189371931797</v>
+        <v>0.1145294029466005</v>
       </c>
       <c r="Q23">
-        <v>0.05261208176077778</v>
+        <v>0.4248297874092223</v>
       </c>
       <c r="R23">
-        <v>0.473508735847</v>
+        <v>3.823468086683001</v>
       </c>
       <c r="S23">
-        <v>0.0005876352064040879</v>
+        <v>0.006564773545416959</v>
       </c>
       <c r="T23">
-        <v>0.0007491826084897817</v>
+        <v>0.007442428508616933</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.04129366666666667</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H24">
-        <v>0.123881</v>
+        <v>1.000309</v>
       </c>
       <c r="I24">
-        <v>0.007906735232425854</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J24">
-        <v>0.008709507847176508</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.026492666666666</v>
+        <v>1.206253333333333</v>
       </c>
       <c r="N24">
-        <v>3.079477999999999</v>
+        <v>3.61876</v>
       </c>
       <c r="O24">
-        <v>0.05987760537255384</v>
+        <v>0.09846039387014423</v>
       </c>
       <c r="P24">
-        <v>0.0693023377547993</v>
+        <v>0.1084310053659079</v>
       </c>
       <c r="Q24">
-        <v>0.0423876460131111</v>
+        <v>0.4022086885377779</v>
       </c>
       <c r="R24">
-        <v>0.3814888141179999</v>
+        <v>3.61987819684</v>
       </c>
       <c r="S24">
-        <v>0.0004734363720324631</v>
+        <v>0.006215216155985429</v>
       </c>
       <c r="T24">
-        <v>0.0006035892545031013</v>
+        <v>0.007046138238662509</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.04129366666666667</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H25">
-        <v>0.123881</v>
+        <v>1.000309</v>
       </c>
       <c r="I25">
-        <v>0.007906735232425854</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J25">
-        <v>0.008709507847176508</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.994132</v>
+        <v>3.3796095</v>
       </c>
       <c r="N25">
-        <v>13.988264</v>
+        <v>6.759219</v>
       </c>
       <c r="O25">
-        <v>0.407983309982618</v>
+        <v>0.2758605288805678</v>
       </c>
       <c r="P25">
-        <v>0.3147999097026509</v>
+        <v>0.2025304003742571</v>
       </c>
       <c r="Q25">
-        <v>0.2888133554306667</v>
+        <v>1.1268845997785</v>
       </c>
       <c r="R25">
-        <v>1.732880132584</v>
+        <v>6.761307598671</v>
       </c>
       <c r="S25">
-        <v>0.003225816011281285</v>
+        <v>0.0174134263382942</v>
       </c>
       <c r="T25">
-        <v>0.002741752283845694</v>
+        <v>0.0131609699066515</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.04129366666666667</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H26">
-        <v>0.123881</v>
+        <v>1.000309</v>
       </c>
       <c r="I26">
-        <v>0.007906735232425854</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J26">
-        <v>0.008709507847176508</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6099756666666667</v>
+        <v>1.152607</v>
       </c>
       <c r="N26">
-        <v>1.829927</v>
+        <v>3.457821</v>
       </c>
       <c r="O26">
-        <v>0.03558124031624234</v>
+        <v>0.09408151344451027</v>
       </c>
       <c r="P26">
-        <v>0.04118172593557306</v>
+        <v>0.1036086967373766</v>
       </c>
       <c r="Q26">
-        <v>0.02518813185411111</v>
+        <v>0.3843210518543334</v>
       </c>
       <c r="R26">
-        <v>0.226693186687</v>
+        <v>3.458889466689</v>
       </c>
       <c r="S26">
-        <v>0.0002813314464218446</v>
+        <v>0.005938803607784348</v>
       </c>
       <c r="T26">
-        <v>0.0003586725651961459</v>
+        <v>0.00673277165950498</v>
       </c>
     </row>
   </sheetData>
